--- a/4hs-code.xlsx
+++ b/4hs-code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\barcode&amp;packing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90959220-1A04-4317-BDEA-3249578780A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D16BCE2-6876-463E-B2B9-902BD6D6115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1920" windowWidth="26820" windowHeight="19680" xr2:uid="{2E2959D6-AA5C-4928-9FFA-252E5985D347}"/>
+    <workbookView xWindow="62280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{823A4F37-2D53-49D2-A0F5-59B7447362A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
+  <si>
+    <t xml:space="preserve">GENERATION LOVE </t>
+  </si>
+  <si>
+    <t>SPRING 2024</t>
+  </si>
+  <si>
+    <t>STYLE GENERAL INFO</t>
+  </si>
   <si>
     <t>START SHIP / DELIVERY</t>
   </si>
@@ -44,7 +53,7 @@
     <t>STYLE #</t>
   </si>
   <si>
-    <t>SIZE</t>
+    <t>FACTORY</t>
   </si>
   <si>
     <t>STYLE NAME</t>
@@ -56,122 +65,351 @@
     <t>FABRIC DESCRIPTION</t>
   </si>
   <si>
-    <t>KNIT / WOVEN</t>
-  </si>
-  <si>
     <t>FABRIC CONTENT FOR HTS</t>
   </si>
   <si>
+    <t>Woven/knit</t>
+  </si>
+  <si>
     <t>HTS CODE</t>
   </si>
   <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SP24248-1</t>
+  </si>
+  <si>
+    <t>ASTRA / NEW FINE</t>
+  </si>
+  <si>
+    <t>JERRY TOP</t>
+  </si>
+  <si>
+    <t>SAGE</t>
+  </si>
+  <si>
+    <t>COTTON SPAN JERSEY</t>
+  </si>
+  <si>
+    <t>95% Cotton / 5% Spandex</t>
+  </si>
+  <si>
+    <t>KNIT</t>
+  </si>
+  <si>
+    <t>SP24602-2</t>
+  </si>
+  <si>
+    <t>PALMERO DRESS</t>
+  </si>
+  <si>
+    <t>SP24248-2</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>SP24638-1</t>
+  </si>
+  <si>
+    <t>PALMERO STRIPE DRESS</t>
+  </si>
+  <si>
+    <t>NAVY/WHITE</t>
+  </si>
+  <si>
+    <t>COTTON JERSEY</t>
+  </si>
+  <si>
+    <t>100% Cotton</t>
+  </si>
+  <si>
+    <t>SP24248-3</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>XXS - XXL</t>
+    <t>SP24592-1</t>
+  </si>
+  <si>
+    <t>NEW FINE</t>
+  </si>
+  <si>
+    <t>DEBORA DENIM PANTS</t>
+  </si>
+  <si>
+    <t>BLUE CRUSH</t>
+  </si>
+  <si>
+    <t>DENIM</t>
+  </si>
+  <si>
+    <t>99.2% COTTON / 0.8% SPANDEX</t>
+  </si>
+  <si>
+    <t>WOVEN</t>
+  </si>
+  <si>
+    <t>SP24592-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW FINE </t>
+  </si>
+  <si>
+    <t>Light Blue</t>
+  </si>
+  <si>
+    <t>SP24630-1</t>
+  </si>
+  <si>
+    <t>MACKENZIE DENIM DRESS</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t xml:space="preserve">WOVEN </t>
-  </si>
-  <si>
-    <t>24 - 32</t>
-  </si>
-  <si>
-    <t>Light Blue</t>
-  </si>
-  <si>
-    <t>DENIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99% COTTON / 1% ELASTANE </t>
-  </si>
-  <si>
-    <t>SU24531-1</t>
-  </si>
-  <si>
-    <t>MELINA DENIM SHORTS</t>
-  </si>
-  <si>
-    <t>SU24511-1</t>
-  </si>
-  <si>
-    <t>MEDINA DENIM SKIRT</t>
-  </si>
-  <si>
-    <t>SU24571-1</t>
-  </si>
-  <si>
-    <t>CAROLYN CRYSTAL DENIM PANTS</t>
-  </si>
-  <si>
-    <t>SU24643-1</t>
-  </si>
-  <si>
-    <t>IDARA CRYSTAL DENIM DRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self: 99% COTTON / 1% ELASTANE 
- Lining: TBD </t>
+    <t>SP24649-1</t>
+  </si>
+  <si>
+    <t>LUEY DENIM DRESS</t>
+  </si>
+  <si>
+    <t>SP24310-1</t>
+  </si>
+  <si>
+    <t>CAMILA DENIM TRENCH COAT</t>
+  </si>
+  <si>
+    <t>SP24517-1</t>
+  </si>
+  <si>
+    <t>RAQUEL DENIM PANTS</t>
+  </si>
+  <si>
+    <t>SP24503-1</t>
+  </si>
+  <si>
+    <t>LUANNE DENIM SKIRT</t>
+  </si>
+  <si>
+    <t>SP24516-1</t>
+  </si>
+  <si>
+    <t>JULIANA DENIM PANTS</t>
+  </si>
+  <si>
+    <t>99.2％COTTON /0.8％SPANDEX</t>
+  </si>
+  <si>
+    <t>SP24359-1</t>
+  </si>
+  <si>
+    <t>OLLIE SHEEN DENIM BLAZER</t>
+  </si>
+  <si>
+    <t>DARK DENIM BLUE</t>
+  </si>
+  <si>
+    <t>82.7% COTTON / 16% POLYESTER / 1.3% SPANDEX</t>
+  </si>
+  <si>
+    <t>SP24554-1</t>
+  </si>
+  <si>
+    <t>ERINA SHEEN DENIM SHORTS</t>
+  </si>
+  <si>
+    <t>SP24555-1</t>
+  </si>
+  <si>
+    <t>MELISSA SHEEN DENIM SKIRT</t>
+  </si>
+  <si>
+    <t>SP24582-1</t>
+  </si>
+  <si>
+    <t>RAQUEL SHEEN DENIM PANTS</t>
+  </si>
+  <si>
+    <t>SP24664-1</t>
+  </si>
+  <si>
+    <t>KALANI SHEEN DENIM DRESS</t>
+  </si>
+  <si>
+    <t>SP24333-1</t>
+  </si>
+  <si>
+    <t>SUNNY POLKA DOT DENIM JACKET</t>
+  </si>
+  <si>
+    <t>SP24528-1</t>
+  </si>
+  <si>
+    <t>JUDITH POLKA DOT DENIM PANTS</t>
+  </si>
+  <si>
+    <t>SP24604-1</t>
+  </si>
+  <si>
+    <t>KALANI DENIM DRESS</t>
+  </si>
+  <si>
+    <t>SP24601-1</t>
+  </si>
+  <si>
+    <t>MARLEY DENIM ROMPER</t>
+  </si>
+  <si>
+    <t>SP24363-1</t>
+  </si>
+  <si>
+    <t>KENZIE DENIM JACKET</t>
+  </si>
+  <si>
+    <t>SP24504-1</t>
+  </si>
+  <si>
+    <t>SYDNEE DENIM SKIRT</t>
+  </si>
+  <si>
+    <t>SP24510-1</t>
+  </si>
+  <si>
+    <t>BROOKLYN DENIM PANTS</t>
+  </si>
+  <si>
+    <t>SP24103-1</t>
+  </si>
+  <si>
+    <t>JOE LACE-UP SWEATSHIRT</t>
+  </si>
+  <si>
+    <t>Washed Denim</t>
+  </si>
+  <si>
+    <t>FLEECE</t>
+  </si>
+  <si>
+    <t>52.8% COTTON, 44.5% POLY, 2,7% SPANDEX</t>
+  </si>
+  <si>
+    <t>SP24506-1</t>
+  </si>
+  <si>
+    <t>MICKEY LACE-UP SWEATPANTS</t>
+  </si>
+  <si>
+    <t>52.8% COTTON, 44.5% POLYESTER, 2,7% SPANDEX</t>
+  </si>
+  <si>
+    <t>SP24510-2</t>
+  </si>
+  <si>
+    <t>SP24517-2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>SP24305-1</t>
+  </si>
+  <si>
+    <t>KARLIE DENIM BLAZER</t>
+  </si>
+  <si>
+    <t>SP24322-1</t>
+  </si>
+  <si>
+    <t>DELANCEY CRYSTAL DENIM JACKET</t>
+  </si>
+  <si>
+    <t>SP24104-1</t>
+  </si>
+  <si>
+    <t>CYRUS DENIM VESTIER</t>
+  </si>
+  <si>
+    <t>SP24519-1</t>
+  </si>
+  <si>
+    <t>OTTAVIA DENIM SHORTS</t>
+  </si>
+  <si>
+    <t>SP24519-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,7 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,8 +446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -203,15 +465,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -221,27 +508,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -260,40 +541,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{98EC386D-75A0-4D90-99AA-909D74A78941}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,173 +923,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7287121-07E1-47D3-BB4A-D91676BFEB86}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F9BC73-62A9-404F-A16B-8F59A9752159}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="125" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="18">
+        <v>6110202079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="18">
+        <v>6104420010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="18">
+        <v>6110202079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="18">
+        <v>6104420010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="18">
+        <v>6110202079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="125" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="H14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18">
+        <v>6204423050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="18">
+        <v>6204423050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="18">
+        <v>6202302050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="18">
+        <v>6204522030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="124" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="18">
+        <v>6204322030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="124" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="18">
+        <v>6204628056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="124" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="18">
+        <v>6204522030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="124" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="124" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="18">
+        <v>6204423050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6">
+      <c r="B28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6202308061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="18">
+        <v>6204423050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="18">
+        <v>6211421025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="18">
+        <v>6202308061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6204522030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="18">
+        <v>6204628011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="124" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="18">
+        <v>6110202079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="18">
+        <v>6104622011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="18">
+        <v>6204628018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="18">
+        <v>6204628018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="18">
+        <v>6204322030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="18">
+        <v>6202308061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="18">
+        <v>6211421092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="18">
         <v>6204628056</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6">
-        <v>6204522030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6">
-        <v>6204628011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6">
-        <v>6204423050</v>
+    <row r="43" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="18">
+        <v>6204628056</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:I11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>